--- a/doc/Risultati TSP.xlsx
+++ b/doc/Risultati TSP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alex2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alex2\Desktop\RepoGit\ProgettoAlgoritmi\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14B8A11-2679-40DD-84B3-2E30D4546214}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE74DA1C-97DC-49F8-ACD3-2AAE442B4FF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{4FF3EF95-B546-493D-92FF-967FBEB3919A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Tour</t>
   </si>
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC9AA55-36C4-48C0-A29F-9C61C815E287}">
-  <dimension ref="A3:K15"/>
+  <dimension ref="A3:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,18 +715,21 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10">
-        <v>107223</v>
+        <v>107271</v>
       </c>
       <c r="D10">
         <v>107217</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>5.5961274797839897E-3</v>
+        <v>5.03651473180559E-2</v>
       </c>
       <c r="F10">
         <v>350</v>
@@ -858,7 +861,40 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E15" s="3">
         <f>(E4+E5+E6+E7+E8+E9+E10+E11+E12+E13)/10</f>
-        <v>0.47739868705251248</v>
+        <v>0.48187558903633965</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>107223</v>
+      </c>
+      <c r="D19">
+        <v>107217</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" ref="E19" si="1">((C19-D19)/D19)*100</f>
+        <v>5.5961274797839897E-3</v>
+      </c>
+      <c r="F19">
+        <v>350</v>
+      </c>
+      <c r="G19">
+        <v>0.1</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>0.9</v>
+      </c>
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Risultati TSP.xlsx
+++ b/doc/Risultati TSP.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alex2\Desktop\RepoGit\ProgettoAlgoritmi\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE74DA1C-97DC-49F8-ACD3-2AAE442B4FF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D0C105-04DD-4451-88A7-03AE8F5438A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{4FF3EF95-B546-493D-92FF-967FBEB3919A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4FF3EF95-B546-493D-92FF-967FBEB3919A}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Computer Test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Tour</t>
   </si>
@@ -97,6 +98,21 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>Iterazioni Eseguite</t>
+  </si>
+  <si>
+    <t>Formiche</t>
+  </si>
+  <si>
+    <t>71 iterazioni</t>
+  </si>
+  <si>
+    <t>FATTO</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -468,20 +484,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC9AA55-36C4-48C0-A29F-9C61C815E287}">
-  <dimension ref="A3:K19"/>
+  <dimension ref="A3:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="50" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -498,22 +515,28 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -521,35 +544,38 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>22643</v>
+        <v>22547</v>
       </c>
       <c r="D4">
         <v>22249</v>
       </c>
       <c r="E4" s="3">
         <f>((C4-D4)/D4)*100</f>
-        <v>1.770866106341858</v>
+        <v>1.3393860398220145</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="G4">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="I4">
-        <v>0.9</v>
-      </c>
-      <c r="J4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0.9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -567,22 +593,25 @@
         <v>150</v>
       </c>
       <c r="G5">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="I5">
-        <v>0.9</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0.9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -600,22 +629,25 @@
         <v>150</v>
       </c>
       <c r="G6">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="I6">
-        <v>0.9</v>
-      </c>
-      <c r="J6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>0.9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -633,22 +665,25 @@
         <v>150</v>
       </c>
       <c r="G7">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="I7">
-        <v>0.9</v>
-      </c>
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>0.9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -666,22 +701,25 @@
         <v>350</v>
       </c>
       <c r="G8">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="I8">
-        <v>0.9</v>
-      </c>
-      <c r="J8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0.9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -699,22 +737,25 @@
         <v>350</v>
       </c>
       <c r="G9">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="I9">
-        <v>0.9</v>
-      </c>
-      <c r="J9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>0.9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -735,22 +776,25 @@
         <v>350</v>
       </c>
       <c r="G10">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="I10">
-        <v>0.9</v>
-      </c>
-      <c r="J10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>0.9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -768,22 +812,25 @@
         <v>350</v>
       </c>
       <c r="G11">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="I11">
-        <v>0.9</v>
-      </c>
-      <c r="J11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>0.9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -801,25 +848,31 @@
         <v>0.7381330910742675</v>
       </c>
       <c r="F12">
-        <v>350</v>
+        <v>186</v>
       </c>
       <c r="G12">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="I12">
-        <v>0.9</v>
-      </c>
-      <c r="J12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>0.9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -827,44 +880,47 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>227763</v>
+        <v>227528</v>
       </c>
       <c r="D13">
         <v>224094</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>1.6372593643738789</v>
+        <v>1.5323926566530117</v>
       </c>
       <c r="F13">
-        <v>350</v>
+        <v>71</v>
       </c>
       <c r="G13">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="I13">
-        <v>0.9</v>
-      </c>
-      <c r="J13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0.9</v>
+      </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E15" s="3">
         <f>(E4+E5+E6+E7+E8+E9+E10+E11+E12+E13)/10</f>
-        <v>0.48187558903633965</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.42824091161226863</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -881,24 +937,556 @@
       <c r="F19">
         <v>350</v>
       </c>
-      <c r="G19">
-        <v>0.1</v>
-      </c>
       <c r="H19">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="I19">
-        <v>0.9</v>
-      </c>
-      <c r="J19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>0.9</v>
+      </c>
+      <c r="K19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>227528</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07188A5C-F6CF-4A42-B897-0E09518D2D4F}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>22652</v>
+      </c>
+      <c r="C2">
+        <v>22249</v>
+      </c>
+      <c r="D2" s="3">
+        <f>((B2-C2)/C2)*100</f>
+        <v>1.8113173625780934</v>
+      </c>
+      <c r="E2">
+        <v>44</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>0.9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>6110</v>
+      </c>
+      <c r="C3">
+        <v>6110</v>
+      </c>
+      <c r="D3" s="3">
+        <f>((B3-C3)/C3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>150</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0.9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>538</v>
+      </c>
+      <c r="C4">
+        <v>538</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D11" si="0">((B4-C4)/C4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>150</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>0.1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0.9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>21282</v>
+      </c>
+      <c r="C5">
+        <v>21282</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>150</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>0.9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>15780</v>
+      </c>
+      <c r="C6" s="1">
+        <v>15780</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>350</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>0.9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>42091</v>
+      </c>
+      <c r="C7" s="2">
+        <v>42029</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1475171905113136</v>
+      </c>
+      <c r="E7">
+        <v>350</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0.9</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>107271</v>
+      </c>
+      <c r="C8">
+        <v>107217</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>5.03651473180559E-2</v>
+      </c>
+      <c r="E8">
+        <v>350</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>0.9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>51019</v>
+      </c>
+      <c r="C9">
+        <v>50778</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.47461499074402302</v>
+      </c>
+      <c r="E9">
+        <v>350</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>0.9</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>8955</v>
+      </c>
+      <c r="C10">
+        <v>8806</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.692028162616398</v>
+      </c>
+      <c r="E10">
+        <v>186</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>0.9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>229895</v>
+      </c>
+      <c r="C11">
+        <v>224094</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5886458361223417</v>
+      </c>
+      <c r="E11">
+        <v>71</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>0.9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>(D2+D3+D4+D5+D6+D7+D8+D9+D10+D11)/10</f>
+        <v>0.67644886898902257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>22652</v>
+      </c>
+      <c r="C18">
+        <v>22652</v>
+      </c>
+      <c r="D18">
+        <v>22651</v>
+      </c>
+      <c r="E18">
+        <v>22652</v>
+      </c>
+      <c r="F18">
+        <v>22652</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>8955</v>
+      </c>
+      <c r="C19">
+        <v>8949</v>
+      </c>
+      <c r="D19">
+        <v>8955</v>
+      </c>
+      <c r="E19">
+        <v>8955</v>
+      </c>
+      <c r="F19">
+        <v>8955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>229895</v>
+      </c>
+      <c r="C20">
+        <v>229895</v>
+      </c>
+      <c r="D20">
+        <v>229895</v>
+      </c>
+      <c r="E20">
+        <v>229895</v>
+      </c>
+      <c r="F20">
+        <v>229895</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>